--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -14,6 +14,8 @@
   <sheets>
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
     <sheet name="학생정보 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="학생성적정보" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="422">
   <si>
     <t>국어국문</t>
   </si>
@@ -1303,6 +1305,47 @@
   </si>
   <si>
     <t>학과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>음악</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미술</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>D004</t>
+  </si>
+  <si>
+    <t>D005</t>
+  </si>
+  <si>
+    <t>D001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D002</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1357,12 +1400,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1646,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1695,7 +1744,7 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1715,8 +1764,8 @@
         <v>397</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <f t="shared" ref="E3:E33" ca="1" si="0">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1737,7 +1786,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -1758,7 +1807,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1779,7 +1828,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1800,7 +1849,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1821,7 +1870,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -1842,7 +1891,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -1884,7 +1933,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -1905,7 +1954,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -1926,7 +1975,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -1947,7 +1996,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -1989,7 +2038,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -2031,7 +2080,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -2052,7 +2101,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -2073,7 +2122,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -2094,7 +2143,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -2115,7 +2164,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -2157,7 +2206,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -2178,7 +2227,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -2220,7 +2269,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -2241,7 +2290,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -2304,7 +2353,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -2325,7 +2374,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -2367,7 +2416,7 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -2430,7 +2479,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -2451,7 +2500,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -2493,7 +2542,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -2514,7 +2563,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -2535,7 +2584,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -2556,7 +2605,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -2577,7 +2626,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -2598,7 +2647,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -2619,7 +2668,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -2661,7 +2710,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -2703,7 +2752,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -2745,7 +2794,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -2766,7 +2815,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -2787,7 +2836,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -2808,7 +2857,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -2829,7 +2878,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -2850,7 +2899,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -2871,7 +2920,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -2892,7 +2941,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -2934,7 +2983,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -2955,7 +3004,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -2976,7 +3025,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -2997,7 +3046,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -3018,7 +3067,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -3060,7 +3109,7 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -3081,7 +3130,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -3123,7 +3172,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -3165,7 +3214,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -3186,7 +3235,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
@@ -3207,7 +3256,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -3228,7 +3277,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -3249,7 +3298,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
@@ -3270,7 +3319,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -3291,7 +3340,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -3312,7 +3361,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
@@ -3333,7 +3382,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -3354,7 +3403,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -3375,7 +3424,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
@@ -3417,7 +3466,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -3438,7 +3487,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
@@ -3459,7 +3508,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -3480,7 +3529,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -3501,7 +3550,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -3522,7 +3571,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
@@ -3564,7 +3613,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -3585,7 +3634,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -3606,7 +3655,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -3627,7 +3676,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -3648,7 +3697,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -3669,7 +3718,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -3711,7 +3760,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -3732,7 +3781,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -3789,10 +3838,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G2" sqref="G2:G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3805,7 +3854,7 @@
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -3824,8 +3873,11 @@
       <c r="F1" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>404</v>
       </c>
@@ -3834,7 +3886,7 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"010"&amp;TEXT(RANDBETWEEN(1000000,9999999),"-0000-0000")</f>
-        <v>010-0218-4662</v>
+        <v>010-0911-9111</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>401</v>
@@ -3847,7 +3899,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>400</v>
       </c>
@@ -3867,8 +3919,12 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="str">
+        <f>VLOOKUP(F3,Sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>396</v>
       </c>
@@ -3883,13 +3939,17 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="str">
+        <f>VLOOKUP(F4,Sheet2!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>392</v>
       </c>
@@ -3904,13 +3964,17 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="str">
+        <f>VLOOKUP(F5,Sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>388</v>
       </c>
@@ -3925,13 +3989,17 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="str">
+        <f>VLOOKUP(F6,Sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>384</v>
       </c>
@@ -3946,13 +4014,17 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="str">
+        <f>VLOOKUP(F7,Sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>380</v>
       </c>
@@ -3972,8 +4044,12 @@
       <c r="F8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="str">
+        <f>VLOOKUP(F8,Sheet2!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>376</v>
       </c>
@@ -3988,13 +4064,17 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="str">
+        <f>VLOOKUP(F9,Sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>372</v>
       </c>
@@ -4009,13 +4089,17 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="str">
+        <f>VLOOKUP(F10,Sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>368</v>
       </c>
@@ -4030,13 +4114,17 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="str">
+        <f>VLOOKUP(F11,Sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>364</v>
       </c>
@@ -4051,13 +4139,17 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="str">
+        <f>VLOOKUP(F12,Sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>360</v>
       </c>
@@ -4072,13 +4164,17 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="str">
+        <f>VLOOKUP(F13,Sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>356</v>
       </c>
@@ -4093,13 +4189,17 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="str">
+        <f>VLOOKUP(F14,Sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>352</v>
       </c>
@@ -4119,8 +4219,12 @@
       <c r="F15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="str">
+        <f>VLOOKUP(F15,Sheet2!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>348</v>
       </c>
@@ -4140,8 +4244,12 @@
       <c r="F16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="str">
+        <f>VLOOKUP(F16,Sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>344</v>
       </c>
@@ -4161,8 +4269,12 @@
       <c r="F17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="str">
+        <f>VLOOKUP(F17,Sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>340</v>
       </c>
@@ -4177,13 +4289,17 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="str">
+        <f>VLOOKUP(F18,Sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>336</v>
       </c>
@@ -4198,13 +4314,17 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="str">
+        <f>VLOOKUP(F19,Sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>332</v>
       </c>
@@ -4219,13 +4339,17 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="str">
+        <f>VLOOKUP(F20,Sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>328</v>
       </c>
@@ -4240,13 +4364,17 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="str">
+        <f>VLOOKUP(F21,Sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>324</v>
       </c>
@@ -4261,13 +4389,17 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="str">
+        <f>VLOOKUP(F22,Sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>320</v>
       </c>
@@ -4282,13 +4414,17 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="str">
+        <f>VLOOKUP(F23,Sheet2!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>316</v>
       </c>
@@ -4308,8 +4444,12 @@
       <c r="F24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="str">
+        <f>VLOOKUP(F24,Sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>312</v>
       </c>
@@ -4324,13 +4464,17 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="str">
+        <f>VLOOKUP(F25,Sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>308</v>
       </c>
@@ -4345,13 +4489,17 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="str">
+        <f>VLOOKUP(F26,Sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>304</v>
       </c>
@@ -4371,8 +4519,12 @@
       <c r="F27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="str">
+        <f>VLOOKUP(F27,Sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>300</v>
       </c>
@@ -4387,13 +4539,17 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="str">
+        <f>VLOOKUP(F28,Sheet2!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>296</v>
       </c>
@@ -4413,8 +4569,12 @@
       <c r="F29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="str">
+        <f>VLOOKUP(F29,Sheet2!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>292</v>
       </c>
@@ -4434,8 +4594,12 @@
       <c r="F30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="str">
+        <f>VLOOKUP(F30,Sheet2!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>288</v>
       </c>
@@ -4450,13 +4614,17 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="str">
+        <f>VLOOKUP(F31,Sheet2!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>284</v>
       </c>
@@ -4471,13 +4639,17 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="str">
+        <f>VLOOKUP(F32,Sheet2!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>280</v>
       </c>
@@ -4492,13 +4664,17 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="str">
+        <f>VLOOKUP(F33,Sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>276</v>
       </c>
@@ -4513,13 +4689,17 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="str">
+        <f>VLOOKUP(F34,Sheet2!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>272</v>
       </c>
@@ -4539,8 +4719,12 @@
       <c r="F35" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="str">
+        <f>VLOOKUP(F35,Sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>268</v>
       </c>
@@ -4555,13 +4739,17 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="str">
+        <f>VLOOKUP(F36,Sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>264</v>
       </c>
@@ -4576,13 +4764,17 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="str">
+        <f>VLOOKUP(F37,Sheet2!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>260</v>
       </c>
@@ -4597,13 +4789,17 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="str">
+        <f>VLOOKUP(F38,Sheet2!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>256</v>
       </c>
@@ -4618,13 +4814,17 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="str">
+        <f>VLOOKUP(F39,Sheet2!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>252</v>
       </c>
@@ -4639,13 +4839,17 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="str">
+        <f>VLOOKUP(F40,Sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>248</v>
       </c>
@@ -4665,8 +4869,12 @@
       <c r="F41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="str">
+        <f>VLOOKUP(F41,Sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>244</v>
       </c>
@@ -4681,13 +4889,17 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="str">
+        <f>VLOOKUP(F42,Sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>240</v>
       </c>
@@ -4702,13 +4914,17 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="str">
+        <f>VLOOKUP(F43,Sheet2!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>236</v>
       </c>
@@ -4723,13 +4939,17 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="str">
+        <f>VLOOKUP(F44,Sheet2!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>232</v>
       </c>
@@ -4744,13 +4964,17 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" t="str">
+        <f>VLOOKUP(F45,Sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>228</v>
       </c>
@@ -4765,13 +4989,17 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" t="str">
+        <f>VLOOKUP(F46,Sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>224</v>
       </c>
@@ -4786,13 +5014,17 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" t="str">
+        <f>VLOOKUP(F47,Sheet2!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>220</v>
       </c>
@@ -4807,13 +5039,17 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" t="str">
+        <f>VLOOKUP(F48,Sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>216</v>
       </c>
@@ -4828,13 +5064,17 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" t="str">
+        <f>VLOOKUP(F49,Sheet2!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>212</v>
       </c>
@@ -4854,8 +5094,12 @@
       <c r="F50" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" t="str">
+        <f>VLOOKUP(F50,Sheet2!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>208</v>
       </c>
@@ -4870,13 +5114,17 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" t="str">
+        <f>VLOOKUP(F51,Sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>204</v>
       </c>
@@ -4891,13 +5139,17 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" t="str">
+        <f>VLOOKUP(F52,Sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>200</v>
       </c>
@@ -4917,8 +5169,12 @@
       <c r="F53" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" t="str">
+        <f>VLOOKUP(F53,Sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>196</v>
       </c>
@@ -4933,13 +5189,17 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" t="str">
+        <f>VLOOKUP(F54,Sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>192</v>
       </c>
@@ -4954,13 +5214,17 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" t="str">
+        <f>VLOOKUP(F55,Sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>188</v>
       </c>
@@ -4975,13 +5239,17 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" t="str">
+        <f>VLOOKUP(F56,Sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>184</v>
       </c>
@@ -4996,13 +5264,17 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" t="str">
+        <f>VLOOKUP(F57,Sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>180</v>
       </c>
@@ -5017,13 +5289,17 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" t="str">
+        <f>VLOOKUP(F58,Sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>176</v>
       </c>
@@ -5038,13 +5314,17 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" t="str">
+        <f>VLOOKUP(F59,Sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
@@ -5064,8 +5344,12 @@
       <c r="F60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" t="str">
+        <f>VLOOKUP(F60,Sheet2!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>168</v>
       </c>
@@ -5080,13 +5364,17 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" t="str">
+        <f>VLOOKUP(F61,Sheet2!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>164</v>
       </c>
@@ -5106,8 +5394,12 @@
       <c r="F62" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" t="str">
+        <f>VLOOKUP(F62,Sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>160</v>
       </c>
@@ -5122,13 +5414,17 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" t="str">
+        <f>VLOOKUP(F63,Sheet2!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>156</v>
       </c>
@@ -5143,13 +5439,17 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" t="str">
+        <f>VLOOKUP(F64,Sheet2!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>152</v>
       </c>
@@ -5169,8 +5469,12 @@
       <c r="F65" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" t="str">
+        <f>VLOOKUP(F65,Sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>148</v>
       </c>
@@ -5190,8 +5494,12 @@
       <c r="F66" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" t="str">
+        <f>VLOOKUP(F66,Sheet2!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>144</v>
       </c>
@@ -5205,14 +5513,18 @@
         <v>141</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E102" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <f t="shared" ref="E67:E101" ca="1" si="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" t="str">
+        <f>VLOOKUP(F67,Sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>140</v>
       </c>
@@ -5227,13 +5539,17 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" t="str">
+        <f>VLOOKUP(F68,Sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -5248,13 +5564,17 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" t="str">
+        <f>VLOOKUP(F69,Sheet2!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>132</v>
       </c>
@@ -5269,13 +5589,17 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" t="str">
+        <f>VLOOKUP(F70,Sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>128</v>
       </c>
@@ -5290,13 +5614,17 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" t="str">
+        <f>VLOOKUP(F71,Sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>124</v>
       </c>
@@ -5316,8 +5644,12 @@
       <c r="F72" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" t="str">
+        <f>VLOOKUP(F72,Sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>120</v>
       </c>
@@ -5337,8 +5669,12 @@
       <c r="F73" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" t="str">
+        <f>VLOOKUP(F73,Sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>116</v>
       </c>
@@ -5353,13 +5689,17 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" t="str">
+        <f>VLOOKUP(F74,Sheet2!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>112</v>
       </c>
@@ -5374,13 +5714,17 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" t="str">
+        <f>VLOOKUP(F75,Sheet2!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>108</v>
       </c>
@@ -5395,13 +5739,17 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" t="str">
+        <f>VLOOKUP(F76,Sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>104</v>
       </c>
@@ -5416,13 +5764,17 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" t="str">
+        <f>VLOOKUP(F77,Sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>100</v>
       </c>
@@ -5437,13 +5789,17 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" t="str">
+        <f>VLOOKUP(F78,Sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>96</v>
       </c>
@@ -5458,13 +5814,17 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" t="str">
+        <f>VLOOKUP(F79,Sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -5479,13 +5839,17 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" t="str">
+        <f>VLOOKUP(F80,Sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>88</v>
       </c>
@@ -5500,13 +5864,17 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" t="str">
+        <f>VLOOKUP(F81,Sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
@@ -5521,13 +5889,17 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" t="str">
+        <f>VLOOKUP(F82,Sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>80</v>
       </c>
@@ -5542,13 +5914,17 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" t="str">
+        <f>VLOOKUP(F83,Sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>76</v>
       </c>
@@ -5568,8 +5944,12 @@
       <c r="F84" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" t="str">
+        <f>VLOOKUP(F84,Sheet2!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>72</v>
       </c>
@@ -5584,13 +5964,17 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" t="str">
+        <f>VLOOKUP(F85,Sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>68</v>
       </c>
@@ -5610,8 +5994,12 @@
       <c r="F86" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" t="str">
+        <f>VLOOKUP(F86,Sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>64</v>
       </c>
@@ -5631,8 +6019,12 @@
       <c r="F87" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" t="str">
+        <f>VLOOKUP(F87,Sheet2!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>60</v>
       </c>
@@ -5647,13 +6039,17 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" t="str">
+        <f>VLOOKUP(F88,Sheet2!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>56</v>
       </c>
@@ -5673,8 +6069,12 @@
       <c r="F89" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" t="str">
+        <f>VLOOKUP(F89,Sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>52</v>
       </c>
@@ -5689,13 +6089,17 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" t="str">
+        <f>VLOOKUP(F90,Sheet2!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>47</v>
       </c>
@@ -5710,13 +6114,17 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" t="str">
+        <f>VLOOKUP(F91,Sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>43</v>
       </c>
@@ -5731,13 +6139,17 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" t="str">
+        <f>VLOOKUP(F92,Sheet2!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>38</v>
       </c>
@@ -5757,8 +6169,12 @@
       <c r="F93" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" t="str">
+        <f>VLOOKUP(F93,Sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>34</v>
       </c>
@@ -5773,13 +6189,17 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" t="str">
+        <f>VLOOKUP(F94,Sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>30</v>
       </c>
@@ -5794,13 +6214,17 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" t="str">
+        <f>VLOOKUP(F95,Sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>26</v>
       </c>
@@ -5815,13 +6239,17 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" t="str">
+        <f>VLOOKUP(F96,Sheet2!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>22</v>
       </c>
@@ -5836,13 +6264,17 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" t="str">
+        <f>VLOOKUP(F97,Sheet2!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>18</v>
       </c>
@@ -5857,13 +6289,17 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" t="str">
+        <f>VLOOKUP(F98,Sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>14</v>
       </c>
@@ -5878,13 +6314,17 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" t="str">
+        <f>VLOOKUP(F99,Sheet2!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -5899,13 +6339,17 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" t="str">
+        <f>VLOOKUP(F100,Sheet2!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>4</v>
       </c>
@@ -5920,10 +6364,2618 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
+      </c>
+      <c r="G101" t="str">
+        <f>VLOOKUP(F101,Sheet2!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A5">
+    <sortCondition ref="A1:A5"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F101"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B2" s="3">
+        <f ca="1">RANDBETWEEN(50,100)</f>
+        <v>72</v>
+      </c>
+      <c r="C2" s="3">
+        <f t="shared" ref="C2:F17" ca="1" si="0">RANDBETWEEN(50,100)</f>
+        <v>70</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="F2" s="3">
+        <f ca="1">RANDBETWEEN(50,100)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3" s="3">
+        <f t="shared" ref="B3:F34" ca="1" si="1">RANDBETWEEN(50,100)</f>
+        <v>94</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B5" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B20" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B25" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B27" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B28" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B29" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B33" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B34" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B35" s="3">
+        <f t="shared" ref="B35:F66" ca="1" si="2">RANDBETWEEN(50,100)</f>
+        <v>75</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B41" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="D48" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B52" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="C56" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="D56" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E56" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="F56" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="C57" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="D57" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="E57" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="F57" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="C58" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="D58" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="C59" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="D59" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="C60" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D60" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="C61" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="D61" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="F61" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="C62" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="D62" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="F62" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="D63" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="F63" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="C64" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="D64" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F64" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="C65" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="D65" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="F65" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="C66" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="D66" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="E66" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="F66" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67" s="3">
+        <f t="shared" ref="B67:F101" ca="1" si="3">RANDBETWEEN(50,100)</f>
+        <v>85</v>
+      </c>
+      <c r="C67" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="D67" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="E67" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="F67" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="C68" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="D68" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="E68" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="F68" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="C69" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="D69" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="F69" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="C70" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="D70" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="E70" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="F70" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="C71" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="D71" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="E71" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="F71" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="C72" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="D72" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="E72" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="F72" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="C73" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="D73" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="E73" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="F73" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="C74" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="D74" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="E74" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="F74" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="C75" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="D75" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="E75" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="F75" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="C76" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="D76" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="E76" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="F76" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="C77" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="D77" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="E77" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="F77" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="C78" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="D78" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="E78" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="F78" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="C79" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="D79" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="E79" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="F79" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="C80" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="D80" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="E80" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="F80" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="C81" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="D81" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="E81" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="F81" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="C82" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="D82" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="E82" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="F82" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="C83" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="D83" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="E83" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="F83" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="C84" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="D84" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="E84" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="F84" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B85" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="C85" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="D85" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="E85" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="F85" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="C86" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="D86" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="E86" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="F86" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B87" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="C87" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D87" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="E87" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="F87" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="C88" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="D88" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="E88" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="F88" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="C89" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="D89" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="E89" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="F89" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="C90" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="D90" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="E90" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="F90" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="C91" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="D91" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="E91" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="F91" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="C92" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="D92" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="E92" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="F92" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="C93" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="D93" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="E93" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="F93" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="C94" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D94" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="E94" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="F94" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="C95" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="D95" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="E95" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="F95" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="C96" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="D96" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="E96" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="F96" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="C97" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="D97" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="E97" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="F97" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="C98" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="D98" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="E98" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="F98" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="C99" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="D99" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="E99" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="F99" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="C100" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="D100" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="E100" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="F100" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="C101" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="D101" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="E101" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="F101" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
-    <sheet name="학생정보 (2)" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="학과정보" sheetId="2" r:id="rId2"/>
+    <sheet name="학과코드" sheetId="4" r:id="rId3"/>
     <sheet name="학생성적정보" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="443">
   <si>
     <t>국어국문</t>
   </si>
@@ -1346,6 +1346,90 @@
   </si>
   <si>
     <t>D002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조용필</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태진아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나훈아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김호중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본관 1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT관 1호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본관 1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본관 3-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본관 3-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이몽룡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성춘향</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장길산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임꺽정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1695,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L78" sqref="L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1744,7 +1828,7 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1807,7 +1891,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1828,7 +1912,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1849,7 +1933,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1870,7 +1954,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -1891,7 +1975,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -1933,7 +2017,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -1975,7 +2059,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -1996,7 +2080,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -2038,7 +2122,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -2059,7 +2143,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -2080,7 +2164,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -2101,7 +2185,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -2122,7 +2206,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -2143,7 +2227,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -2164,7 +2248,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -2185,7 +2269,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -2206,7 +2290,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -2227,7 +2311,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -2248,7 +2332,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -2290,7 +2374,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -2332,7 +2416,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -2353,7 +2437,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -2374,7 +2458,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -2416,7 +2500,7 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -2437,7 +2521,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -2458,7 +2542,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -2479,7 +2563,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -2500,7 +2584,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -2521,7 +2605,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -2542,7 +2626,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -2563,7 +2647,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -2584,7 +2668,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -2605,7 +2689,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -2626,7 +2710,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -2647,7 +2731,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -2668,7 +2752,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -2689,7 +2773,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -2731,7 +2815,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -2752,7 +2836,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -2773,7 +2857,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -2794,7 +2878,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -2815,7 +2899,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -2836,7 +2920,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -2857,7 +2941,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -2878,7 +2962,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -2899,7 +2983,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -2941,7 +3025,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -2962,7 +3046,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -2983,7 +3067,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -3046,7 +3130,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -3088,7 +3172,7 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -3109,7 +3193,7 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -3130,7 +3214,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -3151,7 +3235,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -3193,7 +3277,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
@@ -3214,7 +3298,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -3235,7 +3319,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
@@ -3256,7 +3340,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -3277,7 +3361,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -3298,7 +3382,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
@@ -3319,7 +3403,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -3382,7 +3466,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -3403,7 +3487,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -3445,7 +3529,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -3466,7 +3550,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -3508,7 +3592,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -3529,7 +3613,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -3613,7 +3697,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -3655,7 +3739,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -3676,7 +3760,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -3697,7 +3781,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -3718,7 +3802,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -3781,7 +3865,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -3802,7 +3886,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -3823,7 +3907,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -3840,8 +3924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G101"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3886,17 +3970,21 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"010"&amp;TEXT(RANDBETWEEN(1000000,9999999),"-0000-0000")</f>
-        <v>010-0911-9111</v>
+        <v>010-0385-8423</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>401</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
+      </c>
+      <c r="G2" t="str">
+        <f>VLOOKUP(F2,학과코드!$A$2:$B$6,2)</f>
+        <v>D003</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -3914,13 +4002,13 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="str">
-        <f>VLOOKUP(F3,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F3,학과코드!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -3939,13 +4027,13 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
       <c r="G4" t="str">
-        <f>VLOOKUP(F4,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F4,학과코드!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -3964,13 +4052,13 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
       </c>
       <c r="G5" t="str">
-        <f>VLOOKUP(F5,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F5,학과코드!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3989,13 +4077,13 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
       </c>
       <c r="G6" t="str">
-        <f>VLOOKUP(F6,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F6,학과코드!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -4020,7 +4108,7 @@
         <v>48</v>
       </c>
       <c r="G7" t="str">
-        <f>VLOOKUP(F7,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F7,학과코드!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -4039,13 +4127,13 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
       <c r="G8" t="str">
-        <f>VLOOKUP(F8,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F8,학과코드!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -4064,13 +4152,13 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
       </c>
       <c r="G9" t="str">
-        <f>VLOOKUP(F9,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F9,학과코드!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -4089,13 +4177,13 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="str">
-        <f>VLOOKUP(F10,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F10,학과코드!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4114,13 +4202,13 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
       <c r="G11" t="str">
-        <f>VLOOKUP(F11,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F11,학과코드!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4139,13 +4227,13 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
       <c r="G12" t="str">
-        <f>VLOOKUP(F12,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F12,학과코드!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4170,7 +4258,7 @@
         <v>48</v>
       </c>
       <c r="G13" t="str">
-        <f>VLOOKUP(F13,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F13,학과코드!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -4195,7 +4283,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="str">
-        <f>VLOOKUP(F14,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F14,학과코드!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -4214,13 +4302,13 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="G15" t="str">
-        <f>VLOOKUP(F15,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F15,학과코드!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -4245,7 +4333,7 @@
         <v>48</v>
       </c>
       <c r="G16" t="str">
-        <f>VLOOKUP(F16,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F16,학과코드!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -4264,13 +4352,13 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
       </c>
       <c r="G17" t="str">
-        <f>VLOOKUP(F17,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F17,학과코드!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -4289,13 +4377,13 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
       </c>
       <c r="G18" t="str">
-        <f>VLOOKUP(F18,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F18,학과코드!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -4314,13 +4402,13 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
       <c r="G19" t="str">
-        <f>VLOOKUP(F19,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F19,학과코드!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4339,13 +4427,13 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
       </c>
       <c r="G20" t="str">
-        <f>VLOOKUP(F20,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F20,학과코드!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4370,7 +4458,7 @@
         <v>10</v>
       </c>
       <c r="G21" t="str">
-        <f>VLOOKUP(F21,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F21,학과코드!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4389,13 +4477,13 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
       </c>
       <c r="G22" t="str">
-        <f>VLOOKUP(F22,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F22,학과코드!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -4414,13 +4502,13 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
       </c>
       <c r="G23" t="str">
-        <f>VLOOKUP(F23,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F23,학과코드!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -4439,13 +4527,13 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
       </c>
       <c r="G24" t="str">
-        <f>VLOOKUP(F24,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F24,학과코드!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -4464,13 +4552,13 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
       </c>
       <c r="G25" t="str">
-        <f>VLOOKUP(F25,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F25,학과코드!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -4489,13 +4577,13 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
       </c>
       <c r="G26" t="str">
-        <f>VLOOKUP(F26,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F26,학과코드!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -4514,13 +4602,13 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
       </c>
       <c r="G27" t="str">
-        <f>VLOOKUP(F27,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F27,학과코드!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -4539,13 +4627,13 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
       </c>
       <c r="G28" t="str">
-        <f>VLOOKUP(F28,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F28,학과코드!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -4570,7 +4658,7 @@
         <v>5</v>
       </c>
       <c r="G29" t="str">
-        <f>VLOOKUP(F29,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F29,학과코드!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -4589,13 +4677,13 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
       </c>
       <c r="G30" t="str">
-        <f>VLOOKUP(F30,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F30,학과코드!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -4614,13 +4702,13 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
       </c>
       <c r="G31" t="str">
-        <f>VLOOKUP(F31,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F31,학과코드!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -4639,13 +4727,13 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
       </c>
       <c r="G32" t="str">
-        <f>VLOOKUP(F32,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F32,학과코드!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -4664,13 +4752,13 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
       </c>
       <c r="G33" t="str">
-        <f>VLOOKUP(F33,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F33,학과코드!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4689,13 +4777,13 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
       <c r="G34" t="str">
-        <f>VLOOKUP(F34,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F34,학과코드!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -4714,13 +4802,13 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
       </c>
       <c r="G35" t="str">
-        <f>VLOOKUP(F35,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F35,학과코드!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -4739,13 +4827,13 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
       </c>
       <c r="G36" t="str">
-        <f>VLOOKUP(F36,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F36,학과코드!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4770,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="str">
-        <f>VLOOKUP(F37,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F37,학과코드!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -4789,13 +4877,13 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
       </c>
       <c r="G38" t="str">
-        <f>VLOOKUP(F38,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F38,학과코드!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -4814,13 +4902,13 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
       </c>
       <c r="G39" t="str">
-        <f>VLOOKUP(F39,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F39,학과코드!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -4839,13 +4927,13 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
       </c>
       <c r="G40" t="str">
-        <f>VLOOKUP(F40,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F40,학과코드!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -4864,13 +4952,13 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
       </c>
       <c r="G41" t="str">
-        <f>VLOOKUP(F41,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F41,학과코드!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -4889,13 +4977,13 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
       </c>
       <c r="G42" t="str">
-        <f>VLOOKUP(F42,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F42,학과코드!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4920,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="str">
-        <f>VLOOKUP(F43,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F43,학과코드!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -4939,13 +5027,13 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
       </c>
       <c r="G44" t="str">
-        <f>VLOOKUP(F44,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F44,학과코드!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -4964,13 +5052,13 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
       </c>
       <c r="G45" t="str">
-        <f>VLOOKUP(F45,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F45,학과코드!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4995,7 +5083,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="str">
-        <f>VLOOKUP(F46,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F46,학과코드!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -5020,7 +5108,7 @@
         <v>5</v>
       </c>
       <c r="G47" t="str">
-        <f>VLOOKUP(F47,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F47,학과코드!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -5039,13 +5127,13 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
       </c>
       <c r="G48" t="str">
-        <f>VLOOKUP(F48,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F48,학과코드!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -5070,7 +5158,7 @@
         <v>5</v>
       </c>
       <c r="G49" t="str">
-        <f>VLOOKUP(F49,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F49,학과코드!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -5089,13 +5177,13 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
       </c>
       <c r="G50" t="str">
-        <f>VLOOKUP(F50,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F50,학과코드!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -5114,13 +5202,13 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
       </c>
       <c r="G51" t="str">
-        <f>VLOOKUP(F51,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F51,학과코드!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -5139,13 +5227,13 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
       </c>
       <c r="G52" t="str">
-        <f>VLOOKUP(F52,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F52,학과코드!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -5164,13 +5252,13 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
       </c>
       <c r="G53" t="str">
-        <f>VLOOKUP(F53,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F53,학과코드!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -5195,7 +5283,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="str">
-        <f>VLOOKUP(F54,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F54,학과코드!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -5214,13 +5302,13 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
       </c>
       <c r="G55" t="str">
-        <f>VLOOKUP(F55,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F55,학과코드!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -5239,13 +5327,13 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
       </c>
       <c r="G56" t="str">
-        <f>VLOOKUP(F56,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F56,학과코드!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -5264,13 +5352,13 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
       </c>
       <c r="G57" t="str">
-        <f>VLOOKUP(F57,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F57,학과코드!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -5295,7 +5383,7 @@
         <v>48</v>
       </c>
       <c r="G58" t="str">
-        <f>VLOOKUP(F58,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F58,학과코드!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -5320,7 +5408,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="str">
-        <f>VLOOKUP(F59,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F59,학과코드!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -5339,13 +5427,13 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
       </c>
       <c r="G60" t="str">
-        <f>VLOOKUP(F60,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F60,학과코드!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -5364,13 +5452,13 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
       </c>
       <c r="G61" t="str">
-        <f>VLOOKUP(F61,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F61,학과코드!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -5389,13 +5477,13 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
       </c>
       <c r="G62" t="str">
-        <f>VLOOKUP(F62,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F62,학과코드!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -5420,7 +5508,7 @@
         <v>5</v>
       </c>
       <c r="G63" t="str">
-        <f>VLOOKUP(F63,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F63,학과코드!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -5439,13 +5527,13 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
       </c>
       <c r="G64" t="str">
-        <f>VLOOKUP(F64,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F64,학과코드!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -5464,13 +5552,13 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
       </c>
       <c r="G65" t="str">
-        <f>VLOOKUP(F65,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F65,학과코드!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -5489,13 +5577,13 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
       </c>
       <c r="G66" t="str">
-        <f>VLOOKUP(F66,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F66,학과코드!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -5520,7 +5608,7 @@
         <v>48</v>
       </c>
       <c r="G67" t="str">
-        <f>VLOOKUP(F67,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F67,학과코드!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -5539,13 +5627,13 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
       </c>
       <c r="G68" t="str">
-        <f>VLOOKUP(F68,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F68,학과코드!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -5570,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="str">
-        <f>VLOOKUP(F69,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F69,학과코드!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -5589,13 +5677,13 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
       </c>
       <c r="G70" t="str">
-        <f>VLOOKUP(F70,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F70,학과코드!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -5620,7 +5708,7 @@
         <v>48</v>
       </c>
       <c r="G71" t="str">
-        <f>VLOOKUP(F71,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F71,학과코드!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -5639,13 +5727,13 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
       </c>
       <c r="G72" t="str">
-        <f>VLOOKUP(F72,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F72,학과코드!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -5664,13 +5752,13 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
       </c>
       <c r="G73" t="str">
-        <f>VLOOKUP(F73,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F73,학과코드!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -5695,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="str">
-        <f>VLOOKUP(F74,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F74,학과코드!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -5714,13 +5802,13 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
       </c>
       <c r="G75" t="str">
-        <f>VLOOKUP(F75,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F75,학과코드!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -5739,13 +5827,13 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
       </c>
       <c r="G76" t="str">
-        <f>VLOOKUP(F76,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F76,학과코드!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -5764,13 +5852,13 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
       </c>
       <c r="G77" t="str">
-        <f>VLOOKUP(F77,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F77,학과코드!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -5789,13 +5877,13 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
       </c>
       <c r="G78" t="str">
-        <f>VLOOKUP(F78,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F78,학과코드!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -5814,13 +5902,13 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
       </c>
       <c r="G79" t="str">
-        <f>VLOOKUP(F79,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F79,학과코드!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -5839,13 +5927,13 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
       </c>
       <c r="G80" t="str">
-        <f>VLOOKUP(F80,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F80,학과코드!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -5864,13 +5952,13 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
       </c>
       <c r="G81" t="str">
-        <f>VLOOKUP(F81,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F81,학과코드!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -5889,13 +5977,13 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
       </c>
       <c r="G82" t="str">
-        <f>VLOOKUP(F82,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F82,학과코드!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -5914,13 +6002,13 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
       </c>
       <c r="G83" t="str">
-        <f>VLOOKUP(F83,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F83,학과코드!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -5945,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="str">
-        <f>VLOOKUP(F84,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F84,학과코드!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -5964,13 +6052,13 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
       </c>
       <c r="G85" t="str">
-        <f>VLOOKUP(F85,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F85,학과코드!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -5989,13 +6077,13 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
       </c>
       <c r="G86" t="str">
-        <f>VLOOKUP(F86,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F86,학과코드!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -6014,13 +6102,13 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
       </c>
       <c r="G87" t="str">
-        <f>VLOOKUP(F87,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F87,학과코드!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -6039,13 +6127,13 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
       </c>
       <c r="G88" t="str">
-        <f>VLOOKUP(F88,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F88,학과코드!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -6070,7 +6158,7 @@
         <v>48</v>
       </c>
       <c r="G89" t="str">
-        <f>VLOOKUP(F89,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F89,학과코드!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -6089,13 +6177,13 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
       </c>
       <c r="G90" t="str">
-        <f>VLOOKUP(F90,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F90,학과코드!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -6120,7 +6208,7 @@
         <v>10</v>
       </c>
       <c r="G91" t="str">
-        <f>VLOOKUP(F91,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F91,학과코드!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -6139,13 +6227,13 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
       </c>
       <c r="G92" t="str">
-        <f>VLOOKUP(F92,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F92,학과코드!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -6164,13 +6252,13 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
       </c>
       <c r="G93" t="str">
-        <f>VLOOKUP(F93,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F93,학과코드!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -6189,13 +6277,13 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
       </c>
       <c r="G94" t="str">
-        <f>VLOOKUP(F94,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F94,학과코드!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -6220,7 +6308,7 @@
         <v>10</v>
       </c>
       <c r="G95" t="str">
-        <f>VLOOKUP(F95,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F95,학과코드!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -6239,13 +6327,13 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
       </c>
       <c r="G96" t="str">
-        <f>VLOOKUP(F96,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F96,학과코드!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -6264,13 +6352,13 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
       </c>
       <c r="G97" t="str">
-        <f>VLOOKUP(F97,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F97,학과코드!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -6289,13 +6377,13 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
       </c>
       <c r="G98" t="str">
-        <f>VLOOKUP(F98,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F98,학과코드!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -6314,13 +6402,13 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
       </c>
       <c r="G99" t="str">
-        <f>VLOOKUP(F99,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F99,학과코드!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -6339,13 +6427,13 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
       </c>
       <c r="G100" t="str">
-        <f>VLOOKUP(F100,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F100,학과코드!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -6364,13 +6452,13 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
       </c>
       <c r="G101" t="str">
-        <f>VLOOKUP(F101,Sheet2!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F101,학과코드!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -6383,56 +6471,145 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="25.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E2" t="str">
+        <f ca="1">"062" &amp; TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
+        <v>062-900-1294</v>
+      </c>
+      <c r="F2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E6" ca="1" si="0">"062" &amp; TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
+        <v>062-467-2243</v>
+      </c>
+      <c r="F3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-825-7079</v>
+      </c>
+      <c r="F4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>48</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D5" t="s">
+        <v>431</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-527-1431</v>
+      </c>
+      <c r="F5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>419</v>
       </c>
+      <c r="C6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D6" t="s">
+        <v>432</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-582-1597</v>
+      </c>
+      <c r="F6" t="s">
+        <v>434</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A5">
+  <sortState ref="A2:A6">
     <sortCondition ref="A1:A5"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6484,23 +6661,23 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C2" s="3">
         <f t="shared" ref="C2:F17" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="F2" s="3">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6509,23 +6686,23 @@
       </c>
       <c r="B3" s="3">
         <f t="shared" ref="B3:F34" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="D3" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="E3" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>51</v>
-      </c>
       <c r="F3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6534,23 +6711,23 @@
       </c>
       <c r="B4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6559,23 +6736,23 @@
       </c>
       <c r="B5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6584,7 +6761,7 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -6592,15 +6769,15 @@
       </c>
       <c r="D6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6609,23 +6786,23 @@
       </c>
       <c r="B7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6634,23 +6811,23 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6659,23 +6836,23 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" ca="1" si="0"/>
         <v>68</v>
       </c>
-      <c r="E9" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>89</v>
-      </c>
       <c r="F9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6684,15 +6861,15 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -6700,7 +6877,7 @@
       </c>
       <c r="F10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6709,23 +6886,23 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6734,23 +6911,23 @@
       </c>
       <c r="B12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6759,7 +6936,7 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -6767,15 +6944,15 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6784,23 +6961,23 @@
       </c>
       <c r="B14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -6809,23 +6986,23 @@
       </c>
       <c r="B15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6834,23 +7011,23 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -6859,23 +7036,23 @@
       </c>
       <c r="B17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -6884,23 +7061,23 @@
       </c>
       <c r="B18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -6909,23 +7086,23 @@
       </c>
       <c r="B19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -6934,23 +7111,23 @@
       </c>
       <c r="B20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -6959,23 +7136,23 @@
       </c>
       <c r="B21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -6984,23 +7161,23 @@
       </c>
       <c r="B22" s="3">
         <f t="shared" ca="1" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ca="1" si="1"/>
         <v>95</v>
       </c>
-      <c r="C22" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>56</v>
-      </c>
       <c r="E22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -7009,23 +7186,23 @@
       </c>
       <c r="B23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -7034,23 +7211,23 @@
       </c>
       <c r="B24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -7059,23 +7236,23 @@
       </c>
       <c r="B25" s="3">
         <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" ca="1" si="1"/>
         <v>82</v>
       </c>
-      <c r="C25" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="E25" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>72</v>
-      </c>
       <c r="F25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -7084,23 +7261,23 @@
       </c>
       <c r="B26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -7109,23 +7286,23 @@
       </c>
       <c r="B27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -7134,23 +7311,23 @@
       </c>
       <c r="B28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -7163,19 +7340,19 @@
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" ca="1" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" ca="1" si="1"/>
         <v>85</v>
-      </c>
-      <c r="F29" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -7184,23 +7361,23 @@
       </c>
       <c r="B30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -7209,23 +7386,23 @@
       </c>
       <c r="B31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="E31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -7234,23 +7411,23 @@
       </c>
       <c r="B32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -7259,23 +7436,23 @@
       </c>
       <c r="B33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C33" s="3">
         <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" ca="1" si="1"/>
         <v>80</v>
       </c>
-      <c r="D33" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="E33" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>77</v>
-      </c>
       <c r="F33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -7284,23 +7461,23 @@
       </c>
       <c r="B34" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C34" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D34" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E34" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -7309,23 +7486,23 @@
       </c>
       <c r="B35" s="3">
         <f t="shared" ref="B35:F66" ca="1" si="2">RANDBETWEEN(50,100)</f>
+        <v>69</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" ca="1" si="2"/>
         <v>75</v>
-      </c>
-      <c r="C35" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>86</v>
-      </c>
-      <c r="D35" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>78</v>
-      </c>
-      <c r="E35" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>97</v>
-      </c>
-      <c r="F35" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -7334,11 +7511,11 @@
       </c>
       <c r="B36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D36" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -7346,11 +7523,11 @@
       </c>
       <c r="E36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -7359,23 +7536,23 @@
       </c>
       <c r="B37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -7384,23 +7561,23 @@
       </c>
       <c r="B38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="D38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -7409,23 +7586,23 @@
       </c>
       <c r="B39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="F39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -7434,23 +7611,23 @@
       </c>
       <c r="B40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="E40" s="3">
         <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" ca="1" si="2"/>
         <v>55</v>
-      </c>
-      <c r="F40" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -7459,23 +7636,23 @@
       </c>
       <c r="B41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -7484,23 +7661,23 @@
       </c>
       <c r="B42" s="3">
         <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" ca="1" si="2"/>
         <v>52</v>
       </c>
-      <c r="C42" s="3">
+      <c r="D42" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="F42" s="3">
         <f t="shared" ca="1" si="2"/>
         <v>75</v>
-      </c>
-      <c r="D42" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>58</v>
-      </c>
-      <c r="E42" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>62</v>
-      </c>
-      <c r="F42" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -7509,23 +7686,23 @@
       </c>
       <c r="B43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -7534,23 +7711,23 @@
       </c>
       <c r="B44" s="3">
         <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" ca="1" si="2"/>
         <v>89</v>
       </c>
-      <c r="C44" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="D44" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>65</v>
-      </c>
       <c r="E44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -7559,23 +7736,23 @@
       </c>
       <c r="B45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -7584,23 +7761,23 @@
       </c>
       <c r="B46" s="3">
         <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" ca="1" si="2"/>
         <v>72</v>
       </c>
-      <c r="C46" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>90</v>
-      </c>
       <c r="D46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -7609,23 +7786,23 @@
       </c>
       <c r="B47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D47" s="3">
         <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" ca="1" si="2"/>
         <v>51</v>
-      </c>
-      <c r="E47" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="F47" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -7634,23 +7811,23 @@
       </c>
       <c r="B48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="E48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="F48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -7659,23 +7836,23 @@
       </c>
       <c r="B49" s="3">
         <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" ca="1" si="2"/>
         <v>70</v>
       </c>
-      <c r="C49" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>57</v>
-      </c>
       <c r="D49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="F49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -7684,23 +7861,23 @@
       </c>
       <c r="B50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="F50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -7709,7 +7886,7 @@
       </c>
       <c r="B51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C51" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -7717,11 +7894,11 @@
       </c>
       <c r="D51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="F51" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -7734,23 +7911,23 @@
       </c>
       <c r="B52" s="3">
         <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" ca="1" si="2"/>
         <v>84</v>
       </c>
-      <c r="C52" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>93</v>
-      </c>
-      <c r="D52" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>92</v>
-      </c>
-      <c r="E52" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>53</v>
-      </c>
       <c r="F52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -7759,23 +7936,23 @@
       </c>
       <c r="B53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D53" s="3">
         <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" ca="1" si="2"/>
         <v>65</v>
       </c>
-      <c r="E53" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>54</v>
-      </c>
       <c r="F53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -7784,23 +7961,23 @@
       </c>
       <c r="B54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="D54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -7809,23 +7986,23 @@
       </c>
       <c r="B55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="D55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="E55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -7834,23 +8011,23 @@
       </c>
       <c r="B56" s="3">
         <f t="shared" ca="1" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="C56" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="D56" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="E56" s="3">
+        <f t="shared" ca="1" si="2"/>
         <v>89</v>
       </c>
-      <c r="C56" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="D56" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="E56" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>75</v>
-      </c>
       <c r="F56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -7859,23 +8036,23 @@
       </c>
       <c r="B57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -7884,23 +8061,23 @@
       </c>
       <c r="B58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -7909,23 +8086,23 @@
       </c>
       <c r="B59" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="C59" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="D59" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E59" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -7934,23 +8111,23 @@
       </c>
       <c r="B60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="D60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="F60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -7963,19 +8140,19 @@
       </c>
       <c r="C61" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D61" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F61" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -7984,23 +8161,23 @@
       </c>
       <c r="B62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="D62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -8009,15 +8186,15 @@
       </c>
       <c r="B63" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C63" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D63" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="E63" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -8025,7 +8202,7 @@
       </c>
       <c r="F63" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -8034,23 +8211,23 @@
       </c>
       <c r="B64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="E64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -8059,19 +8236,19 @@
       </c>
       <c r="B65" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C65" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D65" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E65" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F65" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -8084,23 +8261,23 @@
       </c>
       <c r="B66" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C66" s="3">
         <f t="shared" ca="1" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="D66" s="3">
+        <f t="shared" ca="1" si="2"/>
         <v>92</v>
       </c>
-      <c r="D66" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>70</v>
-      </c>
       <c r="E66" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F66" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -8109,7 +8286,7 @@
       </c>
       <c r="B67" s="3">
         <f t="shared" ref="B67:F101" ca="1" si="3">RANDBETWEEN(50,100)</f>
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C67" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -8117,15 +8294,15 @@
       </c>
       <c r="D67" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E67" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="F67" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -8134,23 +8311,23 @@
       </c>
       <c r="B68" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C68" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D68" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="E68" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F68" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -8159,19 +8336,19 @@
       </c>
       <c r="B69" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C69" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D69" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E69" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="F69" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -8184,23 +8361,23 @@
       </c>
       <c r="B70" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D70" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E70" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="F70" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -8209,23 +8386,23 @@
       </c>
       <c r="B71" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C71" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="D71" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E71" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F71" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -8234,23 +8411,23 @@
       </c>
       <c r="B72" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C72" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D72" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E72" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F72" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -8259,23 +8436,23 @@
       </c>
       <c r="B73" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C73" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="D73" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E73" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F73" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -8284,23 +8461,23 @@
       </c>
       <c r="B74" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C74" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D74" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E74" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="F74" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -8309,23 +8486,23 @@
       </c>
       <c r="B75" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C75" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D75" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="E75" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F75" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -8334,23 +8511,23 @@
       </c>
       <c r="B76" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C76" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D76" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E76" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F76" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -8359,7 +8536,7 @@
       </c>
       <c r="B77" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C77" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -8367,15 +8544,15 @@
       </c>
       <c r="D77" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="E77" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F77" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -8384,23 +8561,23 @@
       </c>
       <c r="B78" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C78" s="3">
         <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D78" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="E78" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="F78" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>70</v>
-      </c>
-      <c r="D78" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="E78" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="F78" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -8409,23 +8586,23 @@
       </c>
       <c r="B79" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C79" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D79" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E79" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F79" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -8434,23 +8611,23 @@
       </c>
       <c r="B80" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C80" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D80" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E80" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="F80" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -8459,15 +8636,15 @@
       </c>
       <c r="B81" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C81" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D81" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="E81" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -8475,7 +8652,7 @@
       </c>
       <c r="F81" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -8484,23 +8661,23 @@
       </c>
       <c r="B82" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C82" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D82" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E82" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F82" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -8509,23 +8686,23 @@
       </c>
       <c r="B83" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C83" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D83" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E83" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="F83" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -8534,23 +8711,23 @@
       </c>
       <c r="B84" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C84" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="D84" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E84" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F84" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -8559,23 +8736,23 @@
       </c>
       <c r="B85" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C85" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D85" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E85" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F85" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -8584,23 +8761,23 @@
       </c>
       <c r="B86" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C86" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D86" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E86" s="3">
         <f t="shared" ca="1" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="F86" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>69</v>
-      </c>
-      <c r="F86" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -8609,23 +8786,23 @@
       </c>
       <c r="B87" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C87" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D87" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E87" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="F87" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -8634,11 +8811,11 @@
       </c>
       <c r="B88" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C88" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D88" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -8646,11 +8823,11 @@
       </c>
       <c r="E88" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F88" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -8659,23 +8836,23 @@
       </c>
       <c r="B89" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C89" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D89" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="E89" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F89" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -8684,23 +8861,23 @@
       </c>
       <c r="B90" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C90" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D90" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="E90" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F90" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -8709,23 +8886,23 @@
       </c>
       <c r="B91" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C91" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D91" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E91" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F91" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -8734,23 +8911,23 @@
       </c>
       <c r="B92" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C92" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D92" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E92" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F92" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -8759,23 +8936,23 @@
       </c>
       <c r="B93" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C93" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D93" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E93" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F93" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -8784,23 +8961,23 @@
       </c>
       <c r="B94" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C94" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D94" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E94" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="F94" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -8809,23 +8986,23 @@
       </c>
       <c r="B95" s="3">
         <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="C95" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>77</v>
       </c>
-      <c r="C95" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>75</v>
-      </c>
       <c r="D95" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="E95" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="F95" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -8834,23 +9011,23 @@
       </c>
       <c r="B96" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C96" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D96" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E96" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F96" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -8859,11 +9036,11 @@
       </c>
       <c r="B97" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C97" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D97" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -8871,11 +9048,11 @@
       </c>
       <c r="E97" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="F97" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -8884,23 +9061,23 @@
       </c>
       <c r="B98" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C98" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="D98" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E98" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F98" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -8909,23 +9086,23 @@
       </c>
       <c r="B99" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="C99" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="D99" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="E99" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F99" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -8934,23 +9111,23 @@
       </c>
       <c r="B100" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C100" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="D100" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E100" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F100" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -8959,23 +9136,23 @@
       </c>
       <c r="B101" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C101" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D101" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E101" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="F101" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="444">
   <si>
     <t>국어국문</t>
   </si>
@@ -1430,6 +1430,10 @@
   </si>
   <si>
     <t>임꺽정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터공학</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1779,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L78" sqref="L78"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1828,7 +1832,7 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1891,7 +1895,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1933,7 +1937,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1975,7 +1979,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -1999,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2017,7 +2021,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -2038,7 +2042,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -2059,7 +2063,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -2080,7 +2084,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -2101,7 +2105,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -2122,7 +2126,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -2164,7 +2168,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -2206,7 +2210,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -2227,7 +2231,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -2248,7 +2252,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -2269,7 +2273,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -2290,7 +2294,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -2311,7 +2315,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -2332,7 +2336,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -2353,7 +2357,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -2374,7 +2378,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -2395,7 +2399,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -2416,7 +2420,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -2437,7 +2441,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -2458,7 +2462,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -2479,7 +2483,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -2500,7 +2504,7 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -2521,7 +2525,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -2563,7 +2567,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -2584,7 +2588,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -2605,7 +2609,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -2626,7 +2630,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -2668,7 +2672,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -2710,7 +2714,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -2773,7 +2777,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -2794,7 +2798,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -2836,7 +2840,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -2899,7 +2903,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -2962,7 +2966,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -2983,7 +2987,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -3025,7 +3029,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -3067,7 +3071,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -3109,7 +3113,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -3130,7 +3134,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -3172,7 +3176,7 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -3193,7 +3197,7 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -3214,7 +3218,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -3256,7 +3260,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -3277,7 +3281,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
@@ -3298,7 +3302,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -3340,7 +3344,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -3361,7 +3365,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -3403,7 +3407,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -3424,7 +3428,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -3445,7 +3449,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
@@ -3487,7 +3491,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -3508,7 +3512,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
@@ -3550,7 +3554,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -3571,7 +3575,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
@@ -3592,7 +3596,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -3613,7 +3617,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -3634,7 +3638,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -3655,7 +3659,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
@@ -3676,7 +3680,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
@@ -3697,7 +3701,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -3739,7 +3743,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -3802,7 +3806,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -3823,7 +3827,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -3865,7 +3869,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -3886,7 +3890,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -3970,14 +3974,14 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"010"&amp;TEXT(RANDBETWEEN(1000000,9999999),"-0000-0000")</f>
-        <v>010-0385-8423</v>
+        <v>010-0460-4297</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>401</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -4002,7 +4006,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -4027,7 +4031,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -4077,7 +4081,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -4102,7 +4106,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -4127,7 +4131,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -4152,7 +4156,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -4177,7 +4181,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -4202,7 +4206,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -4227,7 +4231,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -4252,7 +4256,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -4277,7 +4281,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -4302,7 +4306,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -4327,7 +4331,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -4377,7 +4381,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -4427,7 +4431,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -4452,7 +4456,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -4477,7 +4481,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -4502,7 +4506,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4577,7 +4581,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -4602,7 +4606,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -4652,7 +4656,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -4677,7 +4681,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -4702,7 +4706,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -4752,7 +4756,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -4777,7 +4781,7 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -4802,7 +4806,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -4827,7 +4831,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -4852,7 +4856,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -4877,7 +4881,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -4902,7 +4906,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -4927,7 +4931,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -5002,7 +5006,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -5027,7 +5031,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -5052,7 +5056,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -5077,7 +5081,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -5102,7 +5106,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -5152,7 +5156,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -5177,7 +5181,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -5202,7 +5206,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -5227,7 +5231,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -5252,7 +5256,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -5277,7 +5281,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -5302,7 +5306,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -5327,7 +5331,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -5352,7 +5356,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -5377,7 +5381,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -5402,7 +5406,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -5427,7 +5431,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -5452,7 +5456,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -5477,7 +5481,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -5502,7 +5506,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -5577,7 +5581,7 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -5602,7 +5606,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E101" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -5627,7 +5631,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -5652,7 +5656,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -5702,7 +5706,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
@@ -5727,7 +5731,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -5752,7 +5756,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
@@ -5777,7 +5781,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -5802,7 +5806,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -5852,7 +5856,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -5877,7 +5881,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -5902,7 +5906,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
@@ -5952,7 +5956,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -6002,7 +6006,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -6027,7 +6031,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -6052,7 +6056,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
@@ -6077,7 +6081,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -6102,7 +6106,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -6127,7 +6131,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -6152,7 +6156,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
@@ -6177,7 +6181,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
@@ -6202,7 +6206,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -6227,7 +6231,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -6252,7 +6256,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -6302,7 +6306,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -6352,7 +6356,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -6377,7 +6381,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -6402,7 +6406,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -6427,7 +6431,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -6452,7 +6456,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -6473,7 +6477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -6518,7 +6522,7 @@
       </c>
       <c r="E2" t="str">
         <f ca="1">"062" &amp; TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
-        <v>062-900-1294</v>
+        <v>062-900-7119</v>
       </c>
       <c r="F2" t="s">
         <v>433</v>
@@ -6539,7 +6543,7 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E6" ca="1" si="0">"062" &amp; TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
-        <v>062-467-2243</v>
+        <v>062-838-5055</v>
       </c>
       <c r="F3" t="s">
         <v>435</v>
@@ -6560,7 +6564,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-825-7079</v>
+        <v>062-660-7127</v>
       </c>
       <c r="F4" t="s">
         <v>436</v>
@@ -6581,7 +6585,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-527-1431</v>
+        <v>062-555-5406</v>
       </c>
       <c r="F5" t="s">
         <v>437</v>
@@ -6602,7 +6606,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-582-1597</v>
+        <v>062-420-1708</v>
       </c>
       <c r="F6" t="s">
         <v>434</v>
@@ -6661,23 +6665,23 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C2" s="3">
         <f t="shared" ref="C2:F17" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="E2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F2" s="3">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>51</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6690,19 +6694,19 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6711,23 +6715,23 @@
       </c>
       <c r="B4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6736,23 +6740,23 @@
       </c>
       <c r="B5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6761,23 +6765,23 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" ca="1" si="0"/>
         <v>83</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6786,23 +6790,23 @@
       </c>
       <c r="B7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6811,23 +6815,23 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6836,23 +6840,23 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6861,23 +6865,23 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6886,23 +6890,23 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6911,23 +6915,23 @@
       </c>
       <c r="B12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6936,23 +6940,23 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6961,23 +6965,23 @@
       </c>
       <c r="B14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" ca="1" si="0"/>
         <v>57</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -6986,23 +6990,23 @@
       </c>
       <c r="B15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -7011,23 +7015,23 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -7036,23 +7040,23 @@
       </c>
       <c r="B17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -7061,23 +7065,23 @@
       </c>
       <c r="B18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -7086,23 +7090,23 @@
       </c>
       <c r="B19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -7111,23 +7115,23 @@
       </c>
       <c r="B20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -7136,23 +7140,23 @@
       </c>
       <c r="B21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" ca="1" si="1"/>
         <v>56</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -7161,23 +7165,23 @@
       </c>
       <c r="B22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" ca="1" si="1"/>
         <v>95</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -7186,23 +7190,23 @@
       </c>
       <c r="B23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -7211,23 +7215,23 @@
       </c>
       <c r="B24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -7236,23 +7240,23 @@
       </c>
       <c r="B25" s="3">
         <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" ca="1" si="1"/>
         <v>61</v>
       </c>
-      <c r="C25" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>87</v>
-      </c>
       <c r="E25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -7261,23 +7265,23 @@
       </c>
       <c r="B26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" ca="1" si="1"/>
         <v>73</v>
-      </c>
-      <c r="E26" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="F26" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -7286,23 +7290,23 @@
       </c>
       <c r="B27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -7311,23 +7315,23 @@
       </c>
       <c r="B28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -7336,23 +7340,23 @@
       </c>
       <c r="B29" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" ca="1" si="1"/>
         <v>50</v>
-      </c>
-      <c r="D29" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="E29" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="F29" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -7361,23 +7365,23 @@
       </c>
       <c r="B30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -7386,23 +7390,23 @@
       </c>
       <c r="B31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -7411,23 +7415,23 @@
       </c>
       <c r="B32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -7436,23 +7440,23 @@
       </c>
       <c r="B33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -7461,23 +7465,23 @@
       </c>
       <c r="B34" s="3">
         <f t="shared" ca="1" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" ca="1" si="1"/>
         <v>55</v>
       </c>
-      <c r="C34" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="D34" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>91</v>
-      </c>
       <c r="E34" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -7486,7 +7490,7 @@
       </c>
       <c r="B35" s="3">
         <f t="shared" ref="B35:F66" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C35" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -7494,15 +7498,15 @@
       </c>
       <c r="D35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -7511,23 +7515,23 @@
       </c>
       <c r="B36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="C36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -7536,23 +7540,23 @@
       </c>
       <c r="B37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -7561,23 +7565,23 @@
       </c>
       <c r="B38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -7586,23 +7590,23 @@
       </c>
       <c r="B39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="D39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="E39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -7611,23 +7615,23 @@
       </c>
       <c r="B40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="F40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -7636,23 +7640,23 @@
       </c>
       <c r="B41" s="3">
         <f t="shared" ca="1" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" ca="1" si="2"/>
         <v>95</v>
       </c>
-      <c r="C41" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>75</v>
-      </c>
       <c r="D41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -7661,23 +7665,23 @@
       </c>
       <c r="B42" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C42" s="3">
         <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" ca="1" si="2"/>
         <v>52</v>
       </c>
-      <c r="D42" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>89</v>
-      </c>
-      <c r="E42" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>76</v>
-      </c>
       <c r="F42" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -7686,23 +7690,23 @@
       </c>
       <c r="B43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="E43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -7715,19 +7719,19 @@
       </c>
       <c r="C44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="D44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -7736,7 +7740,7 @@
       </c>
       <c r="B45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C45" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -7744,15 +7748,15 @@
       </c>
       <c r="D45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" ca="1" si="2"/>
         <v>74</v>
-      </c>
-      <c r="F45" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -7761,23 +7765,23 @@
       </c>
       <c r="B46" s="3">
         <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" ca="1" si="2"/>
         <v>69</v>
       </c>
-      <c r="C46" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="D46" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="E46" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>51</v>
-      </c>
       <c r="F46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -7786,23 +7790,23 @@
       </c>
       <c r="B47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="E47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -7811,23 +7815,23 @@
       </c>
       <c r="B48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="F48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -7836,23 +7840,23 @@
       </c>
       <c r="B49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="F49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -7861,23 +7865,23 @@
       </c>
       <c r="B50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="E50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -7886,19 +7890,19 @@
       </c>
       <c r="B51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="F51" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -7911,23 +7915,23 @@
       </c>
       <c r="B52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D52" s="3">
         <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" ca="1" si="2"/>
         <v>55</v>
       </c>
-      <c r="E52" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>84</v>
-      </c>
       <c r="F52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -7936,11 +7940,11 @@
       </c>
       <c r="B53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="C53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D53" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -7948,11 +7952,11 @@
       </c>
       <c r="E53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -7961,23 +7965,23 @@
       </c>
       <c r="B54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -7986,23 +7990,23 @@
       </c>
       <c r="B55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="D55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="E55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -8011,23 +8015,23 @@
       </c>
       <c r="B56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -8036,23 +8040,23 @@
       </c>
       <c r="B57" s="3">
         <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="C57" s="3">
+        <f t="shared" ca="1" si="2"/>
         <v>66</v>
       </c>
-      <c r="C57" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>70</v>
-      </c>
       <c r="D57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="E57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -8061,23 +8065,23 @@
       </c>
       <c r="B58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -8086,7 +8090,7 @@
       </c>
       <c r="B59" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C59" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -8094,15 +8098,15 @@
       </c>
       <c r="D59" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E59" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="F59" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -8111,23 +8115,23 @@
       </c>
       <c r="B60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="C60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="F60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -8136,23 +8140,23 @@
       </c>
       <c r="B61" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C61" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="D61" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F61" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -8161,23 +8165,23 @@
       </c>
       <c r="B62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="D62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="E62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="F62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -8186,23 +8190,23 @@
       </c>
       <c r="B63" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C63" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D63" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E63" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F63" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -8211,23 +8215,23 @@
       </c>
       <c r="B64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="D64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -8236,23 +8240,23 @@
       </c>
       <c r="B65" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C65" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D65" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E65" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F65" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -8261,23 +8265,23 @@
       </c>
       <c r="B66" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C66" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="D66" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="E66" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F66" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -8286,23 +8290,23 @@
       </c>
       <c r="B67" s="3">
         <f t="shared" ref="B67:F101" ca="1" si="3">RANDBETWEEN(50,100)</f>
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C67" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D67" s="3">
         <f t="shared" ca="1" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="E67" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="F67" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>61</v>
-      </c>
-      <c r="E67" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="F67" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -8311,19 +8315,19 @@
       </c>
       <c r="B68" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C68" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D68" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="E68" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F68" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -8336,23 +8340,23 @@
       </c>
       <c r="B69" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C69" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D69" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E69" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="F69" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -8361,23 +8365,23 @@
       </c>
       <c r="B70" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C70" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="D70" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E70" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F70" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -8386,23 +8390,23 @@
       </c>
       <c r="B71" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C71" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="D71" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E71" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="F71" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -8411,23 +8415,23 @@
       </c>
       <c r="B72" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C72" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D72" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="E72" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="F72" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -8436,11 +8440,11 @@
       </c>
       <c r="B73" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="C73" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D73" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -8448,11 +8452,11 @@
       </c>
       <c r="E73" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="F73" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -8461,23 +8465,23 @@
       </c>
       <c r="B74" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C74" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="D74" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="E74" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="F74" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -8486,7 +8490,7 @@
       </c>
       <c r="B75" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="C75" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -8494,15 +8498,15 @@
       </c>
       <c r="D75" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E75" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F75" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -8511,23 +8515,23 @@
       </c>
       <c r="B76" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C76" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="D76" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E76" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="F76" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -8536,23 +8540,23 @@
       </c>
       <c r="B77" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C77" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D77" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E77" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F77" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -8561,23 +8565,23 @@
       </c>
       <c r="B78" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C78" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D78" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="E78" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F78" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -8586,23 +8590,23 @@
       </c>
       <c r="B79" s="3">
         <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="C79" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>75</v>
       </c>
-      <c r="C79" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>73</v>
-      </c>
       <c r="D79" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E79" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F79" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -8611,23 +8615,23 @@
       </c>
       <c r="B80" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C80" s="3">
         <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="D80" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="E80" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>87</v>
       </c>
-      <c r="D80" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>54</v>
-      </c>
-      <c r="E80" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>99</v>
-      </c>
       <c r="F80" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -8636,23 +8640,23 @@
       </c>
       <c r="B81" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C81" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D81" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E81" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F81" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -8661,23 +8665,23 @@
       </c>
       <c r="B82" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C82" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D82" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E82" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="F82" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -8686,15 +8690,15 @@
       </c>
       <c r="B83" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C83" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D83" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E83" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -8702,7 +8706,7 @@
       </c>
       <c r="F83" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -8711,23 +8715,23 @@
       </c>
       <c r="B84" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C84" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="D84" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E84" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F84" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -8736,23 +8740,23 @@
       </c>
       <c r="B85" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C85" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D85" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E85" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F85" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -8761,23 +8765,23 @@
       </c>
       <c r="B86" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C86" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D86" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E86" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F86" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -8786,23 +8790,23 @@
       </c>
       <c r="B87" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C87" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D87" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E87" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="F87" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -8811,15 +8815,15 @@
       </c>
       <c r="B88" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C88" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D88" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E88" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -8827,7 +8831,7 @@
       </c>
       <c r="F88" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -8836,23 +8840,23 @@
       </c>
       <c r="B89" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C89" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="D89" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="E89" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F89" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -8861,23 +8865,23 @@
       </c>
       <c r="B90" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C90" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D90" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E90" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F90" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -8886,23 +8890,23 @@
       </c>
       <c r="B91" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C91" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D91" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E91" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F91" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -8911,23 +8915,23 @@
       </c>
       <c r="B92" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C92" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="D92" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="E92" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F92" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>51</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -8936,23 +8940,23 @@
       </c>
       <c r="B93" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C93" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D93" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E93" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F93" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -8961,19 +8965,19 @@
       </c>
       <c r="B94" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C94" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D94" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E94" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F94" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -8986,23 +8990,23 @@
       </c>
       <c r="B95" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C95" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D95" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="E95" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F95" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -9011,23 +9015,23 @@
       </c>
       <c r="B96" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C96" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D96" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E96" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F96" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -9036,23 +9040,23 @@
       </c>
       <c r="B97" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C97" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="D97" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E97" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="F97" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -9061,23 +9065,23 @@
       </c>
       <c r="B98" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C98" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D98" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E98" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="F98" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -9086,23 +9090,23 @@
       </c>
       <c r="B99" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C99" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="D99" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E99" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="F99" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -9111,23 +9115,23 @@
       </c>
       <c r="B100" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C100" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="D100" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E100" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F100" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -9136,23 +9140,23 @@
       </c>
       <c r="B101" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C101" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D101" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E101" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="F101" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
